--- a/QHKH/BIEUMAUEXCEL/BM05CT.xlsx
+++ b/QHKH/BIEUMAUEXCEL/BM05CT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\QHKH\QHKH\BIEUMAUEXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB7682E-2FC6-4767-B0F7-6235B369C825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB20A0F-4C3A-452F-A1FB-CAE4EED427D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="14895" xr2:uid="{282F4766-5114-46B0-B433-2EEA91293C5C}"/>
+    <workbookView xWindow="0" yWindow="705" windowWidth="21600" windowHeight="14895" xr2:uid="{282F4766-5114-46B0-B433-2EEA91293C5C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>STT</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>KẾ HOẠCH CHUYỂN MỤC ĐÍCH SỬ DỤNG ĐẤT (20..-20..) PHÂN THEO ĐƠN VỊ HÀNH CHÍNH CỦA TỈNH (THÀNH PHỐ) …</t>
+  </si>
+  <si>
+    <t>BM05/CT</t>
   </si>
 </sst>
 </file>
@@ -252,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -278,6 +281,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -290,11 +299,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,7 +619,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,25 +631,26 @@
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
     <col min="8" max="8" width="12.140625" customWidth="1"/>
     <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-    </row>
-    <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -651,45 +658,47 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="L2" s="17" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
